--- a/assets/templates/Payment_upload_format.xlsx
+++ b/assets/templates/Payment_upload_format.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Date of Entry in System</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Payment Amount</t>
+  </si>
+  <si>
+    <t>Credit Note</t>
+  </si>
+  <si>
+    <t>Narration</t>
   </si>
 </sst>
 </file>
@@ -115,7 +121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,11 +144,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -156,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,14 +472,16 @@
     <col min="5" max="6" width="21.77734375" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -482,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -508,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -532,6 +554,12 @@
       </c>
       <c r="H4" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +570,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -553,9 +581,10 @@
     <col min="3" max="3" width="21.77734375" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" customWidth="1"/>
     <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -564,6 +593,9 @@
       </c>
       <c r="E1" t="s">
         <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/assets/templates/Payment_upload_format.xlsx
+++ b/assets/templates/Payment_upload_format.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Date of Entry in System</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Narration</t>
+  </si>
+  <si>
+    <t>Debit \ Credit</t>
+  </si>
+  <si>
+    <t>Tax</t>
   </si>
 </sst>
 </file>
@@ -457,11 +463,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -472,16 +476,16 @@
     <col min="5" max="6" width="21.77734375" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="9" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -503,8 +507,9 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -529,8 +534,9 @@
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -556,9 +562,12 @@
         <v>4</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -570,7 +579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,7 +593,7 @@
     <col min="7" max="7" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -596,6 +605,9 @@
       </c>
       <c r="G1" t="s">
         <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
